--- a/zhibao/Template/F_Template.xlsx
+++ b/zhibao/Template/F_Template.xlsx
@@ -814,10 +814,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:A124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -827,619 +827,626 @@
     <col min="2" max="2" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
       <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
       <c r="A123" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>264:测试123</t>
+        </is>
       </c>
     </row>
   </sheetData>
